--- a/va_facility_data_2025-02-20/Aberdeen VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Aberdeen%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Aberdeen VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Aberdeen%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R5f9217df640047a4abd4f8dcd57f4edb"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R83707549bc2644de8baa2f3e866e9499"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rb4f764cd46124eaca96fe620028b86e3"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R446fce448fbc451592541764d796dcd6"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R98859d0a8a9249d4a82768e7ab34321d"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rd6c3602521bc4a92bfeaa5209f8a6642"/>
   </x:sheets>
 </x:workbook>
 </file>
